--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3931367.079169669</v>
+        <v>-3932094.347763597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.0481093194188</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.5523362150475282</v>
       </c>
       <c r="H11" t="n">
         <v>191.4417197072311</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385979</v>
+        <v>48.05352955385982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.50181669461875</v>
+        <v>54.6103180377209</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571338</v>
+        <v>78.0430356557134</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478422</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>206.4130322951203</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561763</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.96880132191701</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142346045</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>14.81714403310826</v>
       </c>
       <c r="F12" t="n">
-        <v>2.24127597109117</v>
+        <v>2.241275971091198</v>
       </c>
       <c r="G12" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.2973636400704</v>
       </c>
       <c r="I12" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>83.27374157744549</v>
       </c>
       <c r="S12" t="n">
-        <v>23.80408096185297</v>
+        <v>23.804080961853</v>
       </c>
       <c r="T12" t="n">
-        <v>56.24068595177398</v>
+        <v>56.240685951774</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9234913358047</v>
+        <v>83.09555491351203</v>
       </c>
       <c r="V12" t="n">
-        <v>89.97265072713256</v>
+        <v>89.97265072713259</v>
       </c>
       <c r="W12" t="n">
         <v>108.8670467386269</v>
       </c>
       <c r="X12" t="n">
-        <v>62.94504878118477</v>
+        <v>62.94504878118479</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.85475935501165</v>
+        <v>62.85475935501168</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964459</v>
+        <v>37.00404375964462</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633513</v>
+        <v>24.41888467633515</v>
       </c>
       <c r="D13" t="n">
-        <v>5.787536595919647</v>
+        <v>5.787536595919676</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276462</v>
+        <v>3.606026224276491</v>
       </c>
       <c r="F13" t="n">
-        <v>2.593111600638537</v>
+        <v>2.593111600638565</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93505813979076</v>
+        <v>24.93505813979079</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646475</v>
+        <v>17.37224398646477</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243234</v>
+        <v>5.766413901243262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422058</v>
+        <v>24.21442947422061</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057564</v>
+        <v>77.21550839057566</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874891</v>
+        <v>84.14353614874894</v>
       </c>
       <c r="U13" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V13" t="n">
         <v>109.3097069015353</v>
@@ -1591,10 +1591,10 @@
         <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674444</v>
+        <v>82.88171896674447</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980208</v>
+        <v>75.75671692980211</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4449553487148</v>
+        <v>65.62419781647759</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983902</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.102433649969</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>264.0481093194188</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H14" t="n">
-        <v>140.1682127048347</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385976</v>
+        <v>48.05352955385981</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772084</v>
+        <v>54.6103180377209</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571334</v>
+        <v>78.04303565571341</v>
       </c>
       <c r="U14" t="n">
         <v>108.4770562459344</v>
@@ -1667,10 +1667,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951203</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.7052472275746</v>
+        <v>23.70524722757466</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142346016</v>
+        <v>4.617129142346073</v>
       </c>
       <c r="E15" t="n">
-        <v>46.80395424266425</v>
+        <v>65.29955170421745</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.27374157744549</v>
       </c>
       <c r="S15" t="n">
-        <v>166.6320173841457</v>
+        <v>23.804080961853</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0686223740667</v>
+        <v>56.240685951774</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9234913358047</v>
+        <v>83.09555491351203</v>
       </c>
       <c r="V15" t="n">
-        <v>89.97265072713253</v>
+        <v>89.97265072713259</v>
       </c>
       <c r="W15" t="n">
         <v>108.8670467386269</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118474</v>
+        <v>62.94504878118479</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501162</v>
+        <v>62.85475935501168</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964456</v>
+        <v>37.00404375964462</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4188846763351</v>
+        <v>24.41888467633515</v>
       </c>
       <c r="D16" t="n">
-        <v>5.787536595919619</v>
+        <v>5.787536595919676</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276434</v>
+        <v>3.606026224276491</v>
       </c>
       <c r="F16" t="n">
-        <v>2.593111600638508</v>
+        <v>2.593111600638565</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93505813979073</v>
+        <v>24.93505813979079</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646472</v>
+        <v>17.37224398646477</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243205</v>
+        <v>5.766413901243262</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422056</v>
+        <v>24.21442947422061</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057561</v>
+        <v>77.21550839057566</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874888</v>
+        <v>84.14353614874894</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4786573998504</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V16" t="n">
         <v>109.3097069015353</v>
@@ -1828,10 +1828,10 @@
         <v>143.6950619142983</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674442</v>
+        <v>82.88171896674447</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980205</v>
+        <v>75.75671692980211</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>131.4288489952534</v>
       </c>
       <c r="C17" t="n">
-        <v>113.9678991027803</v>
+        <v>113.9678991027804</v>
       </c>
       <c r="D17" t="n">
-        <v>103.3780489524557</v>
+        <v>103.3780489524558</v>
       </c>
       <c r="E17" t="n">
-        <v>130.6253774040346</v>
+        <v>130.6253774040347</v>
       </c>
       <c r="F17" t="n">
-        <v>155.5710530734842</v>
+        <v>155.5710530734843</v>
       </c>
       <c r="G17" t="n">
-        <v>163.4894918517907</v>
+        <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129654</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190769</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W17" t="n">
-        <v>97.9359760491858</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X17" t="n">
-        <v>118.4261080102418</v>
+        <v>118.4261080102419</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.9329459878264</v>
+        <v>134.9329459878265</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>13.49789088323289</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>83.27374157744549</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9234913358047</v>
+        <v>101.5961159977898</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926923909</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>76.05638742689179</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5943503235359</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>220.0434448128684</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391593</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556007871</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W19" t="n">
-        <v>35.21800566836379</v>
+        <v>39.82529860592299</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040346</v>
+        <v>130.6253774040347</v>
       </c>
       <c r="F20" t="n">
         <v>155.5710530734843</v>
@@ -2096,7 +2096,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H20" t="n">
-        <v>82.9646634612966</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190775</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918585</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X20" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878264</v>
+        <v>134.9329459878265</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.75623915236677</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187.2929360633261</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U21" t="n">
         <v>225.9234913358047</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926924762</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>79.22968972749628</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.00160115391598</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556008439</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836384</v>
+        <v>35.21800566836387</v>
       </c>
       <c r="X22" t="n">
-        <v>224.6507377504276</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>13.2159886745769</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>80.03380954572833</v>
@@ -2448,22 +2448,22 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>69.74042616272246</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>76.03526473221515</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0434448128684</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.607292937559112</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>35.00160115391601</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.040724095447</v>
+        <v>233.0407240954471</v>
       </c>
       <c r="C26" t="n">
-        <v>215.579774202974</v>
+        <v>215.5797742029741</v>
       </c>
       <c r="D26" t="n">
-        <v>204.9899240526494</v>
+        <v>204.9899240526495</v>
       </c>
       <c r="E26" t="n">
         <v>232.2372525042283</v>
       </c>
       <c r="F26" t="n">
-        <v>257.1829281736779</v>
+        <v>257.182928173678</v>
       </c>
       <c r="G26" t="n">
-        <v>265.1013669519844</v>
+        <v>265.1013669519845</v>
       </c>
       <c r="H26" t="n">
         <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811896</v>
+        <v>41.188348408119</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.74513689198005</v>
+        <v>47.74513689198008</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997256</v>
+        <v>71.17785450997258</v>
       </c>
       <c r="U26" t="n">
         <v>101.6118751001936</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.84006608183384</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8.36796217695111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>16.93889981611215</v>
+        <v>16.93889981611218</v>
       </c>
       <c r="T27" t="n">
-        <v>49.37550480603316</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U27" t="n">
-        <v>164.6321454904507</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.13886261390377</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C28" t="n">
-        <v>17.5537035305943</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.06987699404994</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H28" t="n">
-        <v>10.50706284072393</v>
+        <v>10.50706284072396</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.34924832847976</v>
+        <v>17.34924832847979</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35032724483482</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T28" t="n">
-        <v>77.27835500300809</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U28" t="n">
-        <v>136.6134762541096</v>
+        <v>136.6134762541097</v>
       </c>
       <c r="V28" t="n">
         <v>102.4445257557945</v>
@@ -2776,10 +2776,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X28" t="n">
-        <v>76.01653782100362</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.89153578406126</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.0407240954471</v>
+        <v>233.040724095447</v>
       </c>
       <c r="C29" t="n">
-        <v>215.5797742029741</v>
+        <v>215.579774202974</v>
       </c>
       <c r="D29" t="n">
-        <v>204.9899240526495</v>
+        <v>204.9899240526494</v>
       </c>
       <c r="E29" t="n">
         <v>232.2372525042283</v>
       </c>
       <c r="F29" t="n">
-        <v>257.182928173678</v>
+        <v>257.1829281736779</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1013669519845</v>
+        <v>265.1013669519844</v>
       </c>
       <c r="H29" t="n">
-        <v>184.5765385614903</v>
+        <v>184.5765385614902</v>
       </c>
       <c r="I29" t="n">
-        <v>41.18834840811899</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.74513689198008</v>
+        <v>47.74513689198005</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997259</v>
+        <v>71.17785450997256</v>
       </c>
       <c r="U29" t="n">
         <v>101.6118751001936</v>
@@ -2880,7 +2880,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.27374157744549</v>
       </c>
       <c r="S30" t="n">
-        <v>16.93889981611218</v>
+        <v>16.93889981611215</v>
       </c>
       <c r="T30" t="n">
-        <v>49.37550480603318</v>
+        <v>49.87962977661744</v>
       </c>
       <c r="U30" t="n">
-        <v>164.6321454904507</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390377</v>
       </c>
       <c r="C31" t="n">
-        <v>17.55370353059433</v>
+        <v>17.5537035305943</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699404994</v>
       </c>
       <c r="H31" t="n">
-        <v>10.50706284072396</v>
+        <v>10.50706284072393</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.34924832847979</v>
+        <v>17.34924832847976</v>
       </c>
       <c r="S31" t="n">
-        <v>70.35032724483484</v>
+        <v>70.35032724483482</v>
       </c>
       <c r="T31" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300809</v>
       </c>
       <c r="U31" t="n">
-        <v>136.6134762541097</v>
+        <v>136.6134762541096</v>
       </c>
       <c r="V31" t="n">
         <v>102.4445257557945</v>
@@ -3013,10 +3013,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X31" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100362</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.89153578406129</v>
+        <v>68.89153578406126</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.040724095447</v>
+        <v>233.0407240954471</v>
       </c>
       <c r="C32" t="n">
-        <v>215.579774202974</v>
+        <v>215.5797742029741</v>
       </c>
       <c r="D32" t="n">
-        <v>204.9899240526494</v>
+        <v>204.9899240526495</v>
       </c>
       <c r="E32" t="n">
-        <v>232.2372525042282</v>
+        <v>232.2372525042283</v>
       </c>
       <c r="F32" t="n">
-        <v>257.1829281736779</v>
+        <v>257.182928173678</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1013669519843</v>
+        <v>265.1013669519845</v>
       </c>
       <c r="H32" t="n">
-        <v>184.5765385614902</v>
+        <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18834840811894</v>
+        <v>41.188348408119</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198002</v>
+        <v>47.74513689198008</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997252</v>
+        <v>71.17785450997258</v>
       </c>
       <c r="U32" t="n">
         <v>101.6118751001936</v>
       </c>
       <c r="V32" t="n">
-        <v>178.0591409021013</v>
+        <v>178.0591409021014</v>
       </c>
       <c r="W32" t="n">
         <v>199.5478511493795</v>
@@ -3095,7 +3095,7 @@
         <v>220.0379831104355</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.54482108802</v>
+        <v>236.5448210880201</v>
       </c>
     </row>
     <row r="33">
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.93889981611212</v>
+        <v>16.93889981611218</v>
       </c>
       <c r="T33" t="n">
-        <v>49.37550480603313</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U33" t="n">
-        <v>164.6321454904509</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>171.5092413040712</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.13886261390374</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059428</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699404991</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5070628407239</v>
+        <v>10.50706284072396</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.34924832847974</v>
+        <v>17.34924832847979</v>
       </c>
       <c r="S34" t="n">
-        <v>70.35032724483479</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300806</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U34" t="n">
-        <v>136.6134762541096</v>
+        <v>136.6134762541097</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4445257557944</v>
+        <v>102.4445257557945</v>
       </c>
       <c r="W34" t="n">
-        <v>136.8298807685574</v>
+        <v>136.8298807685575</v>
       </c>
       <c r="X34" t="n">
-        <v>76.0165378210036</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406123</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="35">
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>80.91021747330154</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9234913358047</v>
+        <v>101.151013031802</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>13.23240972947102</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7629945620835</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>230.5487832650948</v>
+        <v>49.55337897354035</v>
       </c>
       <c r="V37" t="n">
         <v>15.38442847522521</v>
@@ -3588,19 +3588,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6.75236104057813</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.27374157744549</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>101.151013031802</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.94176831231673</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>13.23240972947125</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7629945620835</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>15.38442847522512</v>
       </c>
       <c r="W40" t="n">
-        <v>50.93320759760552</v>
+        <v>49.76978348798812</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>122.4113274501834</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I42" t="n">
         <v>80.03380954572833</v>
@@ -3867,25 +3867,25 @@
         <v>83.27374157744549</v>
       </c>
       <c r="S42" t="n">
-        <v>125.3339293685922</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>5.05251925779864</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V42" t="n">
-        <v>11.92961507141919</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>30.82401108291353</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>122.4094921756977</v>
       </c>
       <c r="T43" t="n">
         <v>6.100500493035545</v>
@@ -3964,7 +3964,7 @@
         <v>4.838683311031076</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.4094921756977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>36.49443734043007</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
-        <v>47.07053031516952</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.27374157744549</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.05251925779864</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>122.4094921756977</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.24065501293981</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.1688371627579</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>6.100500493035545</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.9019767570338</v>
+        <v>777.6927638120194</v>
       </c>
       <c r="C11" t="n">
-        <v>268.9019767570338</v>
+        <v>777.6927638120194</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9019767570338</v>
+        <v>777.6927638120194</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9019767570338</v>
+        <v>536.1751540645757</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9019767570338</v>
+        <v>269.4598921257689</v>
       </c>
       <c r="G11" t="n">
-        <v>268.9019767570338</v>
+        <v>268.901976757034</v>
       </c>
       <c r="H11" t="n">
-        <v>75.52650230528525</v>
+        <v>75.52650230528528</v>
       </c>
       <c r="I11" t="n">
         <v>26.98758356401273</v>
@@ -5054,7 +5054,7 @@
         <v>1085.328296543883</v>
       </c>
       <c r="O11" t="n">
-        <v>1319.301809399263</v>
+        <v>1187.362581054638</v>
       </c>
       <c r="P11" t="n">
         <v>1349.379178200636</v>
@@ -5066,25 +5066,25 @@
         <v>1349.379178200636</v>
       </c>
       <c r="S11" t="n">
-        <v>1327.660171438395</v>
+        <v>1294.217240788797</v>
       </c>
       <c r="T11" t="n">
-        <v>1248.82882229121</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="U11" t="n">
-        <v>1139.256038204407</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="V11" t="n">
-        <v>952.4637937116374</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="W11" t="n">
-        <v>743.965781292324</v>
+        <v>1006.887879222299</v>
       </c>
       <c r="X11" t="n">
-        <v>514.7706658820448</v>
+        <v>777.6927638120194</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.9019767570338</v>
+        <v>777.6927638120194</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.9041208766464</v>
+        <v>604.3420543052748</v>
       </c>
       <c r="C12" t="n">
-        <v>412.4510915955194</v>
+        <v>429.8890250241478</v>
       </c>
       <c r="D12" t="n">
-        <v>407.7873247850688</v>
+        <v>280.9546153628966</v>
       </c>
       <c r="E12" t="n">
-        <v>248.5498697796133</v>
+        <v>265.9878032082418</v>
       </c>
       <c r="F12" t="n">
-        <v>246.285954657299</v>
+        <v>263.7238880859274</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8298154283848</v>
+        <v>125.2677488570131</v>
       </c>
       <c r="H12" t="n">
-        <v>107.8298154283848</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I12" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>51.68383790382255</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K12" t="n">
-        <v>220.5145132468846</v>
+        <v>55.20548687699022</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9325875318633</v>
+        <v>343.6235611619689</v>
       </c>
       <c r="M12" t="n">
         <v>677.5949077666264</v>
@@ -5151,19 +5151,19 @@
         <v>1184.410987805614</v>
       </c>
       <c r="U12" t="n">
-        <v>956.2054410017706</v>
+        <v>1100.476083852571</v>
       </c>
       <c r="V12" t="n">
-        <v>865.3239756208286</v>
+        <v>1009.594618471629</v>
       </c>
       <c r="W12" t="n">
-        <v>755.3572617434277</v>
+        <v>899.6279045942281</v>
       </c>
       <c r="X12" t="n">
-        <v>691.7764043886956</v>
+        <v>836.047047239496</v>
       </c>
       <c r="Y12" t="n">
-        <v>628.2867484745424</v>
+        <v>772.5573913253428</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000415</v>
+        <v>112.3201847000417</v>
       </c>
       <c r="C13" t="n">
-        <v>87.65464462293535</v>
+        <v>87.65464462293552</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140035</v>
+        <v>81.80864806140049</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980796</v>
+        <v>78.16619732980807</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269833</v>
+        <v>75.54689268269841</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876826</v>
+        <v>50.35996526876832</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031903</v>
+        <v>32.81224407031905</v>
       </c>
       <c r="I13" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927211</v>
+        <v>91.91899215927208</v>
       </c>
       <c r="K13" t="n">
-        <v>237.4946635888036</v>
+        <v>96.09500653073384</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3649588358099</v>
+        <v>156.9653017777402</v>
       </c>
       <c r="M13" t="n">
-        <v>514.3329306811939</v>
+        <v>239.6019270651914</v>
       </c>
       <c r="N13" t="n">
-        <v>592.5627940330975</v>
+        <v>459.2314474751647</v>
       </c>
       <c r="O13" t="n">
-        <v>790.2040962524536</v>
+        <v>656.8727496945207</v>
       </c>
       <c r="P13" t="n">
-        <v>822.8761680036264</v>
+        <v>822.8761680036267</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772338</v>
+        <v>897.8751138772342</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063039</v>
+        <v>873.4160942063043</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855204</v>
+        <v>795.4206311855207</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281983</v>
+        <v>710.4271603281986</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606726</v>
+        <v>565.4992235606729</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055864</v>
+        <v>455.0853782055867</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194265</v>
+        <v>309.9388510194268</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722099</v>
+        <v>226.2199429722102</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.6980066794805</v>
+        <v>149.6980066794808</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>897.3150951354962</v>
+        <v>876.6179921445303</v>
       </c>
       <c r="C14" t="n">
-        <v>672.6232210458853</v>
+        <v>810.3309236430377</v>
       </c>
       <c r="D14" t="n">
-        <v>458.6281652899356</v>
+        <v>810.3309236430377</v>
       </c>
       <c r="E14" t="n">
-        <v>217.1105555424921</v>
+        <v>810.3309236430377</v>
       </c>
       <c r="F14" t="n">
-        <v>217.1105555424921</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="G14" t="n">
-        <v>217.1105555424921</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H14" t="n">
-        <v>75.52650230528531</v>
+        <v>75.52650230528528</v>
       </c>
       <c r="I14" t="n">
         <v>26.98758356401273</v>
@@ -5309,19 +5309,19 @@
         <v>1215.385891641612</v>
       </c>
       <c r="U14" t="n">
-        <v>1105.81310755481</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="V14" t="n">
-        <v>1105.81310755481</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="W14" t="n">
-        <v>897.3150951354962</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="X14" t="n">
-        <v>897.3150951354962</v>
+        <v>876.6179921445303</v>
       </c>
       <c r="Y14" t="n">
-        <v>897.3150951354962</v>
+        <v>876.6179921445303</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.9156590859419</v>
+        <v>748.6126971560755</v>
       </c>
       <c r="C15" t="n">
-        <v>225.4626298048149</v>
+        <v>574.1596678749485</v>
       </c>
       <c r="D15" t="n">
-        <v>220.7988629943644</v>
+        <v>569.4959010644978</v>
       </c>
       <c r="E15" t="n">
-        <v>173.5221415371278</v>
+        <v>503.5367579289247</v>
       </c>
       <c r="F15" t="n">
-        <v>26.98758356401273</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="G15" t="n">
-        <v>26.98758356401273</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I15" t="n">
         <v>26.98758356401273</v>
@@ -5358,16 +5358,16 @@
         <v>51.68383790382255</v>
       </c>
       <c r="K15" t="n">
-        <v>220.5145132468846</v>
+        <v>51.68383790382255</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9325875318633</v>
+        <v>340.1019121888012</v>
       </c>
       <c r="M15" t="n">
-        <v>698.7585695733151</v>
+        <v>674.0732587934588</v>
       </c>
       <c r="N15" t="n">
-        <v>698.7585695733151</v>
+        <v>1008.044605398116</v>
       </c>
       <c r="O15" t="n">
         <v>1011.566254371284</v>
@@ -5379,28 +5379,28 @@
         <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1349.379178200636</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S15" t="n">
-        <v>1181.064009125742</v>
+        <v>1241.219761494274</v>
       </c>
       <c r="T15" t="n">
-        <v>979.9845925862805</v>
+        <v>1184.410987805614</v>
       </c>
       <c r="U15" t="n">
-        <v>751.7790457824374</v>
+        <v>1100.476083852571</v>
       </c>
       <c r="V15" t="n">
-        <v>660.8975804014954</v>
+        <v>1009.594618471629</v>
       </c>
       <c r="W15" t="n">
-        <v>550.9308665240944</v>
+        <v>899.6279045942281</v>
       </c>
       <c r="X15" t="n">
-        <v>487.3500091693624</v>
+        <v>836.047047239496</v>
       </c>
       <c r="Y15" t="n">
-        <v>423.8603532552092</v>
+        <v>772.5573913253428</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000413</v>
+        <v>112.3201847000417</v>
       </c>
       <c r="C16" t="n">
-        <v>87.65464462293518</v>
+        <v>87.65464462293552</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140021</v>
+        <v>81.80864806140049</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980784</v>
+        <v>78.16619732980807</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269824</v>
+        <v>75.54689268269841</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876821</v>
+        <v>50.35996526876832</v>
       </c>
       <c r="H16" t="n">
-        <v>32.812244070319</v>
+        <v>32.81224407031905</v>
       </c>
       <c r="I16" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927214</v>
+        <v>91.91899215927208</v>
       </c>
       <c r="K16" t="n">
-        <v>237.4946635888037</v>
+        <v>237.4946635888036</v>
       </c>
       <c r="L16" t="n">
-        <v>298.36495883581</v>
+        <v>298.3649588358099</v>
       </c>
       <c r="M16" t="n">
-        <v>514.3329306811941</v>
+        <v>372.9332736231241</v>
       </c>
       <c r="N16" t="n">
-        <v>600.6311045332335</v>
+        <v>459.2314474751647</v>
       </c>
       <c r="O16" t="n">
-        <v>656.8727496945198</v>
+        <v>656.8727496945207</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036258</v>
+        <v>822.8761680036267</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772333</v>
+        <v>897.8751138772342</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063035</v>
+        <v>873.4160942063043</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855201</v>
+        <v>795.4206311855207</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281979</v>
+        <v>710.4271603281986</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606722</v>
+        <v>565.4992235606729</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055862</v>
+        <v>455.0853782055867</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194262</v>
+        <v>309.9388510194268</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722096</v>
+        <v>226.2199429722102</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.6980066794803</v>
+        <v>149.6980066794808</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739547</v>
+        <v>784.5598399739542</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711463</v>
+        <v>669.4407499711458</v>
       </c>
       <c r="D17" t="n">
-        <v>565.018478301999</v>
+        <v>565.0184783019986</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413581</v>
+        <v>433.0736526413575</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893537</v>
+        <v>275.9311747893531</v>
       </c>
       <c r="G17" t="n">
-        <v>110.7902739289587</v>
+        <v>110.7902739289588</v>
       </c>
       <c r="H17" t="n">
         <v>26.98758356401273</v>
@@ -5513,25 +5513,25 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J17" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082621</v>
       </c>
       <c r="K17" t="n">
-        <v>92.94469899547846</v>
+        <v>224.8839273401037</v>
       </c>
       <c r="L17" t="n">
-        <v>352.4246237618152</v>
+        <v>484.3638521064404</v>
       </c>
       <c r="M17" t="n">
-        <v>657.7525819662926</v>
+        <v>789.6918103109178</v>
       </c>
       <c r="N17" t="n">
-        <v>953.3890681992581</v>
+        <v>908.9431108514663</v>
       </c>
       <c r="O17" t="n">
-        <v>1187.362581054638</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P17" t="n">
-        <v>1349.379178200636</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q17" t="n">
         <v>1349.379178200636</v>
@@ -5555,10 +5555,10 @@
         <v>1173.234489462158</v>
       </c>
       <c r="X17" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004732</v>
+        <v>917.3162531004729</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>459.5099267446168</v>
+        <v>673.2524833667171</v>
       </c>
       <c r="C18" t="n">
-        <v>459.5099267446168</v>
+        <v>673.2524833667171</v>
       </c>
       <c r="D18" t="n">
-        <v>310.5755170833656</v>
+        <v>524.3180737054658</v>
       </c>
       <c r="E18" t="n">
-        <v>151.3380620779101</v>
+        <v>365.0806187000104</v>
       </c>
       <c r="F18" t="n">
-        <v>151.3380620779101</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="G18" t="n">
-        <v>137.7038288625233</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="H18" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I18" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J18" t="n">
-        <v>51.68383790382255</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K18" t="n">
-        <v>220.5145132468846</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="L18" t="n">
-        <v>343.6235611619689</v>
+        <v>315.4056578489914</v>
       </c>
       <c r="M18" t="n">
-        <v>677.5949077666264</v>
+        <v>649.3770044536489</v>
       </c>
       <c r="N18" t="n">
-        <v>1011.566254371284</v>
+        <v>983.3483510583064</v>
       </c>
       <c r="O18" t="n">
-        <v>1011.566254371284</v>
+        <v>1296.156035856275</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356884</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q18" t="n">
         <v>1349.379178200636</v>
@@ -5619,25 +5619,25 @@
         <v>1265.264287718368</v>
       </c>
       <c r="S18" t="n">
-        <v>1096.949118643474</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="T18" t="n">
-        <v>895.8697021040123</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="U18" t="n">
-        <v>667.6641553001691</v>
+        <v>1162.641948326661</v>
       </c>
       <c r="V18" t="n">
-        <v>667.6641553001691</v>
+        <v>927.4898400949187</v>
       </c>
       <c r="W18" t="n">
-        <v>667.2702255095708</v>
+        <v>673.2524833667171</v>
       </c>
       <c r="X18" t="n">
-        <v>667.2702255095708</v>
+        <v>673.2524833667171</v>
       </c>
       <c r="Y18" t="n">
-        <v>459.5099267446168</v>
+        <v>673.2524833667171</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G19" t="n">
-        <v>177.0828869211198</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0828869211198</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I19" t="n">
         <v>26.98758356401273</v>
@@ -5698,25 +5698,25 @@
         <v>325.6774777340211</v>
       </c>
       <c r="S19" t="n">
-        <v>325.6774777340211</v>
+        <v>103.4113718624369</v>
       </c>
       <c r="T19" t="n">
-        <v>325.6774777340211</v>
+        <v>103.4113718624369</v>
       </c>
       <c r="U19" t="n">
-        <v>290.3223250532979</v>
+        <v>68.0562191817136</v>
       </c>
       <c r="V19" t="n">
-        <v>289.4812637850143</v>
+        <v>67.21515791342989</v>
       </c>
       <c r="W19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="X19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y19" t="n">
-        <v>253.9075206856569</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>784.5598399739542</v>
       </c>
       <c r="C20" t="n">
-        <v>669.4407499711456</v>
+        <v>669.4407499711457</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783019982</v>
+        <v>565.0184783019984</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413572</v>
+        <v>433.0736526413573</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893528</v>
+        <v>275.9311747893529</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
@@ -5750,22 +5750,22 @@
         <v>26.98758356401273</v>
       </c>
       <c r="J20" t="n">
-        <v>26.98758356401273</v>
+        <v>57.86375137082621</v>
       </c>
       <c r="K20" t="n">
-        <v>194.0077595332903</v>
+        <v>224.8839273401037</v>
       </c>
       <c r="L20" t="n">
-        <v>453.4876842996269</v>
+        <v>484.3638521064404</v>
       </c>
       <c r="M20" t="n">
-        <v>758.8156425041044</v>
+        <v>789.6918103109178</v>
       </c>
       <c r="N20" t="n">
-        <v>1054.45212873707</v>
+        <v>1085.328296543883</v>
       </c>
       <c r="O20" t="n">
-        <v>1288.42564159245</v>
+        <v>1319.301809399263</v>
       </c>
       <c r="P20" t="n">
         <v>1349.379178200636</v>
@@ -5795,7 +5795,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004726</v>
+        <v>917.3162531004727</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.98758356401273</v>
+        <v>652.4711675901759</v>
       </c>
       <c r="C21" t="n">
-        <v>26.98758356401273</v>
+        <v>652.4711675901759</v>
       </c>
       <c r="D21" t="n">
-        <v>26.98758356401273</v>
+        <v>503.5367579289247</v>
       </c>
       <c r="E21" t="n">
-        <v>26.98758356401273</v>
+        <v>503.5367579289247</v>
       </c>
       <c r="F21" t="n">
-        <v>26.98758356401273</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="G21" t="n">
-        <v>26.98758356401273</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="H21" t="n">
-        <v>26.98758356401273</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I21" t="n">
         <v>26.98758356401273</v>
       </c>
       <c r="J21" t="n">
-        <v>26.98758356401273</v>
+        <v>51.68383790382255</v>
       </c>
       <c r="K21" t="n">
-        <v>195.8182589070748</v>
+        <v>220.5145132468846</v>
       </c>
       <c r="L21" t="n">
-        <v>484.2363331920535</v>
+        <v>508.9325875318633</v>
       </c>
       <c r="M21" t="n">
         <v>698.7585695733151</v>
@@ -5853,28 +5853,28 @@
         <v>1349.379178200636</v>
       </c>
       <c r="R21" t="n">
-        <v>1349.379178200636</v>
+        <v>1317.302168955822</v>
       </c>
       <c r="S21" t="n">
-        <v>1349.379178200636</v>
+        <v>1317.302168955822</v>
       </c>
       <c r="T21" t="n">
-        <v>1160.194394298287</v>
+        <v>1116.22275241636</v>
       </c>
       <c r="U21" t="n">
-        <v>931.9888474944437</v>
+        <v>888.017205612517</v>
       </c>
       <c r="V21" t="n">
-        <v>696.836739262701</v>
+        <v>652.8650973807744</v>
       </c>
       <c r="W21" t="n">
-        <v>442.5993825344995</v>
+        <v>652.4711675901759</v>
       </c>
       <c r="X21" t="n">
-        <v>234.7478823289667</v>
+        <v>652.4711675901759</v>
       </c>
       <c r="Y21" t="n">
-        <v>26.98758356401273</v>
+        <v>652.4711675901759</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="C22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="D22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="E22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="F22" t="n">
-        <v>26.98758356401273</v>
+        <v>107.0175731877464</v>
       </c>
       <c r="G22" t="n">
         <v>26.98758356401273</v>
@@ -5950,10 +5950,10 @@
         <v>253.9075206856567</v>
       </c>
       <c r="X22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.559839973954</v>
+        <v>784.5598399739549</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711455</v>
+        <v>669.4407499711464</v>
       </c>
       <c r="D23" t="n">
-        <v>565.0184783019981</v>
+        <v>565.018478301999</v>
       </c>
       <c r="E23" t="n">
-        <v>433.0736526413571</v>
+        <v>433.073652641358</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893527</v>
+        <v>275.9311747893537</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J23" t="n">
-        <v>57.86375137082621</v>
+        <v>57.86375137082622</v>
       </c>
       <c r="K23" t="n">
-        <v>224.8839273401037</v>
+        <v>224.8839273401038</v>
       </c>
       <c r="L23" t="n">
-        <v>307.9786664140233</v>
+        <v>484.3638521064404</v>
       </c>
       <c r="M23" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185017</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514663</v>
+        <v>908.9431108514672</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706846</v>
+        <v>1142.916623706847</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852845</v>
+        <v>1304.933220852846</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.159717794669</v>
+        <v>1272.15971779467</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462158</v>
+        <v>1173.234489462159</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138681</v>
+        <v>1053.612158138682</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004725</v>
+        <v>917.3162531004734</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>888.7948900879214</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="C24" t="n">
-        <v>714.3418608067944</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="D24" t="n">
-        <v>565.4074511455432</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="E24" t="n">
-        <v>406.1699961400877</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="F24" t="n">
-        <v>259.6354381669727</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="G24" t="n">
-        <v>121.1792989380584</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="H24" t="n">
         <v>107.8298154283848</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J24" t="n">
-        <v>51.68383790382255</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K24" t="n">
-        <v>220.5145132468846</v>
+        <v>195.8182589070748</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9325875318633</v>
+        <v>264.8685533496007</v>
       </c>
       <c r="M24" t="n">
-        <v>508.9325875318633</v>
+        <v>598.8398999542585</v>
       </c>
       <c r="N24" t="n">
-        <v>802.518816417067</v>
+        <v>932.8112465589163</v>
       </c>
       <c r="O24" t="n">
-        <v>1115.326501215036</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="P24" t="n">
-        <v>1349.379178200636</v>
+        <v>1245.618931356885</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200636</v>
+        <v>1349.379178200637</v>
       </c>
       <c r="R24" t="n">
-        <v>1265.264287718368</v>
+        <v>1265.264287718369</v>
       </c>
       <c r="S24" t="n">
-        <v>1096.949118643474</v>
+        <v>1096.949118643475</v>
       </c>
       <c r="T24" t="n">
-        <v>1096.949118643474</v>
+        <v>895.8697021040132</v>
       </c>
       <c r="U24" t="n">
-        <v>1096.949118643474</v>
+        <v>667.66415530017</v>
       </c>
       <c r="V24" t="n">
-        <v>1096.949118643474</v>
+        <v>432.5120470684273</v>
       </c>
       <c r="W24" t="n">
-        <v>1096.555188852875</v>
+        <v>178.2746903402257</v>
       </c>
       <c r="X24" t="n">
-        <v>1096.555188852875</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="Y24" t="n">
-        <v>888.7948900879214</v>
+        <v>107.8298154283848</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="C25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="D25" t="n">
-        <v>26.98758356401273</v>
+        <v>103.790881273321</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401273</v>
+        <v>103.790881273321</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401273</v>
+        <v>103.790881273321</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401273</v>
+        <v>103.790881273321</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401273</v>
+        <v>26.98758356401275</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547449</v>
+        <v>31.16359793547451</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248082</v>
+        <v>92.03389318248084</v>
       </c>
       <c r="M25" t="n">
         <v>166.602207969795</v>
@@ -6172,25 +6172,25 @@
         <v>325.6774777340211</v>
       </c>
       <c r="S25" t="n">
-        <v>103.4113718624369</v>
+        <v>325.6774777340211</v>
       </c>
       <c r="T25" t="n">
-        <v>98.75754061237714</v>
+        <v>325.6774777340211</v>
       </c>
       <c r="U25" t="n">
-        <v>63.40238793165389</v>
+        <v>290.3223250532978</v>
       </c>
       <c r="V25" t="n">
-        <v>62.56132666337018</v>
+        <v>289.4812637850142</v>
       </c>
       <c r="W25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="X25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.98758356401273</v>
+        <v>253.9075206856567</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1470.430262411951</v>
+        <v>1470.43026241195</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.612385386069</v>
+        <v>1045.612385386067</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0293020484644</v>
+        <v>811.029302048463</v>
       </c>
       <c r="F26" t="n">
-        <v>551.2485665194968</v>
+        <v>551.2485665194954</v>
       </c>
       <c r="G26" t="n">
-        <v>283.4694079821378</v>
+        <v>283.4694079821373</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022846</v>
+        <v>97.028459940228</v>
       </c>
       <c r="I26" t="n">
         <v>55.42406760879517</v>
       </c>
       <c r="J26" t="n">
-        <v>234.4964218079622</v>
+        <v>234.4964218079617</v>
       </c>
       <c r="K26" t="n">
-        <v>549.7127841695929</v>
+        <v>549.7127841695924</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282828</v>
+        <v>957.3888953282822</v>
       </c>
       <c r="M26" t="n">
         <v>1410.913039925113</v>
@@ -6242,34 +6242,34 @@
         <v>2236.915411798165</v>
       </c>
       <c r="P26" t="n">
-        <v>2547.128195336517</v>
+        <v>2547.128195336516</v>
       </c>
       <c r="Q26" t="n">
-        <v>2739.770339076662</v>
+        <v>2739.770339076661</v>
       </c>
       <c r="R26" t="n">
         <v>2771.203380439758</v>
       </c>
       <c r="S26" t="n">
-        <v>2722.975969437759</v>
+        <v>2722.975969437758</v>
       </c>
       <c r="T26" t="n">
         <v>2651.079146700412</v>
       </c>
       <c r="U26" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.440889023448</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.583170940519</v>
+        <v>2368.583170940517</v>
       </c>
       <c r="W26" t="n">
-        <v>2167.019684931045</v>
+        <v>2167.019684931043</v>
       </c>
       <c r="X26" t="n">
-        <v>1944.759095930605</v>
+        <v>1944.759095930604</v>
       </c>
       <c r="Y26" t="n">
-        <v>1705.824933215433</v>
+        <v>1705.824933215432</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.583519529744</v>
+        <v>773.8782384415414</v>
       </c>
       <c r="C27" t="n">
-        <v>510.130490248617</v>
+        <v>599.4252091604144</v>
       </c>
       <c r="D27" t="n">
-        <v>361.1960805873657</v>
+        <v>450.4907994991631</v>
       </c>
       <c r="E27" t="n">
-        <v>201.9586255819102</v>
+        <v>291.2533444937076</v>
       </c>
       <c r="F27" t="n">
-        <v>55.42406760879517</v>
+        <v>144.7187865205926</v>
       </c>
       <c r="G27" t="n">
-        <v>55.42406760879517</v>
+        <v>144.7187865205926</v>
       </c>
       <c r="H27" t="n">
-        <v>55.42406760879517</v>
+        <v>136.2662994731672</v>
       </c>
       <c r="I27" t="n">
         <v>55.42406760879517</v>
@@ -6336,19 +6336,19 @@
         <v>1924.095216935244</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.800120480243</v>
+        <v>1695.8896701314</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.6480122485</v>
+        <v>1460.737561899658</v>
       </c>
       <c r="W27" t="n">
-        <v>1268.410655520299</v>
+        <v>1206.500205171456</v>
       </c>
       <c r="X27" t="n">
-        <v>1060.559155314766</v>
+        <v>998.6487049659233</v>
       </c>
       <c r="Y27" t="n">
-        <v>852.7988565498119</v>
+        <v>790.8884062009695</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.4978967425391</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C28" t="n">
-        <v>75.76688307527212</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D28" t="n">
-        <v>76.83375117959508</v>
+        <v>76.8337511795952</v>
       </c>
       <c r="E28" t="n">
-        <v>80.0603145518448</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28966340149606</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G28" t="n">
-        <v>66.0372623974052</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
         <v>55.42406760879517</v>
       </c>
       <c r="I28" t="n">
-        <v>56.51184718084778</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J28" t="n">
-        <v>128.2397851103906</v>
+        <v>127.1520055383379</v>
       </c>
       <c r="K28" t="n">
-        <v>280.6119858742055</v>
+        <v>131.3280199097997</v>
       </c>
       <c r="L28" t="n">
-        <v>489.678467513565</v>
+        <v>340.3945015491591</v>
       </c>
       <c r="M28" t="n">
-        <v>564.2467823008792</v>
+        <v>563.1590027288265</v>
       </c>
       <c r="N28" t="n">
-        <v>642.4766456527827</v>
+        <v>641.3888660807301</v>
       </c>
       <c r="O28" t="n">
-        <v>710.2428517722515</v>
+        <v>792.0383269801428</v>
       </c>
       <c r="P28" t="n">
-        <v>734.8466130232877</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="Q28" t="n">
-        <v>816.6420882311785</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R28" t="n">
-        <v>799.1175949700878</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S28" t="n">
-        <v>728.0566583591435</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T28" t="n">
-        <v>649.9977139116606</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U28" t="n">
-        <v>512.0043035539741</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V28" t="n">
-        <v>408.5249846087271</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W28" t="n">
-        <v>270.3129838324064</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X28" t="n">
-        <v>193.528602195029</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.9411923121389</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="29">
@@ -6446,28 +6446,28 @@
         <v>1045.612385386068</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484633</v>
+        <v>811.0293020484635</v>
       </c>
       <c r="F29" t="n">
-        <v>551.2485665194955</v>
+        <v>551.2485665194959</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821375</v>
+        <v>283.4694079821379</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022849</v>
+        <v>97.02845994022846</v>
       </c>
       <c r="I29" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J29" t="n">
-        <v>234.4964218079617</v>
+        <v>234.4964218079618</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695924</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L29" t="n">
-        <v>957.3888953282826</v>
+        <v>957.3888953282825</v>
       </c>
       <c r="M29" t="n">
         <v>1410.913039925113</v>
@@ -6482,16 +6482,16 @@
         <v>2547.128195336516</v>
       </c>
       <c r="Q29" t="n">
-        <v>2739.770339076661</v>
+        <v>2739.770339076662</v>
       </c>
       <c r="R29" t="n">
         <v>2771.203380439758</v>
       </c>
       <c r="S29" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700411</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U29" t="n">
         <v>2548.440889023449</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.583519529744</v>
+        <v>538.0489615566289</v>
       </c>
       <c r="C30" t="n">
-        <v>510.130490248617</v>
+        <v>363.5959322755019</v>
       </c>
       <c r="D30" t="n">
-        <v>361.1960805873657</v>
+        <v>214.6615226142507</v>
       </c>
       <c r="E30" t="n">
-        <v>201.9586255819102</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="F30" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="G30" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="H30" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I30" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J30" t="n">
-        <v>80.12032194860498</v>
+        <v>80.120321948605</v>
       </c>
       <c r="K30" t="n">
         <v>248.9509972916671</v>
@@ -6564,28 +6564,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R30" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546051</v>
       </c>
       <c r="S30" t="n">
-        <v>1973.969464214065</v>
+        <v>1889.854573731797</v>
       </c>
       <c r="T30" t="n">
-        <v>1924.095216935244</v>
+        <v>1839.471109310971</v>
       </c>
       <c r="U30" t="n">
-        <v>1757.800120480243</v>
+        <v>1611.265562507128</v>
       </c>
       <c r="V30" t="n">
-        <v>1522.6480122485</v>
+        <v>1376.113454275385</v>
       </c>
       <c r="W30" t="n">
-        <v>1268.410655520299</v>
+        <v>1121.876097547184</v>
       </c>
       <c r="X30" t="n">
-        <v>1060.559155314766</v>
+        <v>914.0245973416509</v>
       </c>
       <c r="Y30" t="n">
-        <v>852.7988565498119</v>
+        <v>706.264298576697</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.49789674253925</v>
+        <v>93.4978967425391</v>
       </c>
       <c r="C31" t="n">
-        <v>75.76688307527225</v>
+        <v>75.76688307527212</v>
       </c>
       <c r="D31" t="n">
-        <v>76.83375117959518</v>
+        <v>76.83375117959508</v>
       </c>
       <c r="E31" t="n">
-        <v>80.06031455184487</v>
+        <v>80.0603145518448</v>
       </c>
       <c r="F31" t="n">
-        <v>84.2896634014961</v>
+        <v>84.28966340149606</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03726239740521</v>
+        <v>66.0372623974052</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I31" t="n">
-        <v>55.42406760879516</v>
+        <v>56.51184718084778</v>
       </c>
       <c r="J31" t="n">
-        <v>73.36363488411098</v>
+        <v>128.2397851103906</v>
       </c>
       <c r="K31" t="n">
-        <v>225.7358356479259</v>
+        <v>280.6119858742055</v>
       </c>
       <c r="L31" t="n">
-        <v>286.6061308949322</v>
+        <v>341.4822811212118</v>
       </c>
       <c r="M31" t="n">
-        <v>509.3706320745996</v>
+        <v>416.050595908526</v>
       </c>
       <c r="N31" t="n">
-        <v>735.7966818188563</v>
+        <v>494.2804592604296</v>
       </c>
       <c r="O31" t="n">
-        <v>792.0383269801426</v>
+        <v>562.0466653798983</v>
       </c>
       <c r="P31" t="n">
-        <v>816.6420882311788</v>
+        <v>734.8466130232877</v>
       </c>
       <c r="Q31" t="n">
-        <v>816.6420882311788</v>
+        <v>816.6420882311785</v>
       </c>
       <c r="R31" t="n">
-        <v>799.1175949700881</v>
+        <v>799.1175949700878</v>
       </c>
       <c r="S31" t="n">
-        <v>728.0566583591439</v>
+        <v>728.0566583591435</v>
       </c>
       <c r="T31" t="n">
-        <v>649.9977139116609</v>
+        <v>649.9977139116606</v>
       </c>
       <c r="U31" t="n">
-        <v>512.0043035539743</v>
+        <v>512.0043035539741</v>
       </c>
       <c r="V31" t="n">
-        <v>408.5249846087273</v>
+        <v>408.5249846087271</v>
       </c>
       <c r="W31" t="n">
-        <v>270.3129838324066</v>
+        <v>270.3129838324064</v>
       </c>
       <c r="X31" t="n">
-        <v>193.5286021950292</v>
+        <v>193.528602195029</v>
       </c>
       <c r="Y31" t="n">
-        <v>123.9411923121391</v>
+        <v>123.9411923121389</v>
       </c>
     </row>
     <row r="32">
@@ -6677,34 +6677,34 @@
         <v>1470.43026241195</v>
       </c>
       <c r="C32" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D32" t="n">
         <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484638</v>
+        <v>811.0293020484639</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194963</v>
+        <v>551.2485665194964</v>
       </c>
       <c r="G32" t="n">
-        <v>283.4694079821377</v>
+        <v>283.4694079821384</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022843</v>
+        <v>97.0284599402285</v>
       </c>
       <c r="I32" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J32" t="n">
         <v>234.4964218079618</v>
       </c>
       <c r="K32" t="n">
-        <v>549.7127841695926</v>
+        <v>549.7127841695925</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282826</v>
+        <v>957.3888953282824</v>
       </c>
       <c r="M32" t="n">
         <v>1410.913039925113</v>
@@ -6716,16 +6716,16 @@
         <v>2236.915411798165</v>
       </c>
       <c r="P32" t="n">
-        <v>2547.128195336516</v>
+        <v>2547.128195336517</v>
       </c>
       <c r="Q32" t="n">
-        <v>2739.770339076661</v>
+        <v>2739.770339076662</v>
       </c>
       <c r="R32" t="n">
         <v>2771.203380439758</v>
       </c>
       <c r="S32" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T32" t="n">
         <v>2651.079146700412</v>
@@ -6765,19 +6765,19 @@
         <v>201.9586255819102</v>
       </c>
       <c r="F33" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="H33" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I33" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="J33" t="n">
-        <v>80.12032194860498</v>
+        <v>80.120321948605</v>
       </c>
       <c r="K33" t="n">
         <v>248.9509972916671</v>
@@ -6810,7 +6810,7 @@
         <v>1924.095216935244</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.800120480243</v>
+        <v>1695.8896701314</v>
       </c>
       <c r="V33" t="n">
         <v>1522.6480122485</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.0206770687629</v>
+        <v>93.49789674253927</v>
       </c>
       <c r="C34" t="n">
-        <v>84.28966340149599</v>
+        <v>75.76688307527226</v>
       </c>
       <c r="D34" t="n">
-        <v>84.28966340149599</v>
+        <v>76.8337511795952</v>
       </c>
       <c r="E34" t="n">
-        <v>84.28966340149599</v>
+        <v>80.06031455184488</v>
       </c>
       <c r="F34" t="n">
-        <v>84.28966340149599</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740516</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H34" t="n">
-        <v>55.42406760879516</v>
+        <v>55.42406760879517</v>
       </c>
       <c r="I34" t="n">
-        <v>55.42406760879516</v>
+        <v>56.51184718084775</v>
       </c>
       <c r="J34" t="n">
-        <v>81.88641521033406</v>
+        <v>56.51184718084775</v>
       </c>
       <c r="K34" t="n">
-        <v>234.258615974149</v>
+        <v>60.68786155230951</v>
       </c>
       <c r="L34" t="n">
-        <v>295.1289112211554</v>
+        <v>121.5581567993158</v>
       </c>
       <c r="M34" t="n">
-        <v>369.6972260084696</v>
+        <v>196.12647158663</v>
       </c>
       <c r="N34" t="n">
-        <v>596.1232757527264</v>
+        <v>357.6088338262593</v>
       </c>
       <c r="O34" t="n">
-        <v>800.5611073063659</v>
+        <v>562.0466653798987</v>
       </c>
       <c r="P34" t="n">
-        <v>825.1648685574021</v>
+        <v>734.8466130232881</v>
       </c>
       <c r="Q34" t="n">
-        <v>825.1648685574021</v>
+        <v>816.6420882311789</v>
       </c>
       <c r="R34" t="n">
-        <v>807.6403752963114</v>
+        <v>799.1175949700882</v>
       </c>
       <c r="S34" t="n">
-        <v>736.5794386853671</v>
+        <v>728.056658359144</v>
       </c>
       <c r="T34" t="n">
-        <v>658.5204942378842</v>
+        <v>649.997713911661</v>
       </c>
       <c r="U34" t="n">
-        <v>520.5270838801978</v>
+        <v>512.0043035539744</v>
       </c>
       <c r="V34" t="n">
-        <v>417.0477649349509</v>
+        <v>408.5249846087274</v>
       </c>
       <c r="W34" t="n">
-        <v>278.8357641586302</v>
+        <v>270.3129838324067</v>
       </c>
       <c r="X34" t="n">
-        <v>202.0513825212528</v>
+        <v>193.5286021950293</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.4639726383627</v>
+        <v>123.9411923121391</v>
       </c>
     </row>
     <row r="35">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>435.7022125708575</v>
+        <v>353.9747201735832</v>
       </c>
       <c r="C36" t="n">
-        <v>261.2491832897305</v>
+        <v>179.5216908924562</v>
       </c>
       <c r="D36" t="n">
-        <v>112.3147736284792</v>
+        <v>30.58728123120492</v>
       </c>
       <c r="E36" t="n">
         <v>30.58728123120492</v>
@@ -7014,25 +7014,25 @@
         <v>30.58728123120492</v>
       </c>
       <c r="J36" t="n">
-        <v>55.28353557101474</v>
+        <v>30.58728123120492</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1142109140768</v>
+        <v>30.58728123120492</v>
       </c>
       <c r="L36" t="n">
-        <v>512.5322851990555</v>
+        <v>319.0053555161836</v>
       </c>
       <c r="M36" t="n">
-        <v>878.7434529329241</v>
+        <v>697.5229607523445</v>
       </c>
       <c r="N36" t="n">
-        <v>878.7434529329241</v>
+        <v>1076.040565988505</v>
       </c>
       <c r="O36" t="n">
-        <v>1191.551137730893</v>
+        <v>1388.848250786474</v>
       </c>
       <c r="P36" t="n">
-        <v>1425.603814716494</v>
+        <v>1529.364061560246</v>
       </c>
       <c r="Q36" t="n">
         <v>1529.364061560246</v>
@@ -7047,19 +7047,19 @@
         <v>1529.364061560246</v>
       </c>
       <c r="U36" t="n">
-        <v>1301.158514756403</v>
+        <v>1427.191321124082</v>
       </c>
       <c r="V36" t="n">
-        <v>1066.00640652466</v>
+        <v>1192.039212892339</v>
       </c>
       <c r="W36" t="n">
-        <v>811.7690497964584</v>
+        <v>937.8018561641379</v>
       </c>
       <c r="X36" t="n">
-        <v>603.9175495909255</v>
+        <v>729.9503559586051</v>
       </c>
       <c r="Y36" t="n">
-        <v>603.9175495909255</v>
+        <v>522.1900571936512</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="C37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="D37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="E37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="F37" t="n">
-        <v>30.58728123120492</v>
+        <v>200.0448514959357</v>
       </c>
       <c r="G37" t="n">
         <v>30.58728123120492</v>
@@ -7126,19 +7126,19 @@
         <v>329.2771754012132</v>
       </c>
       <c r="U37" t="n">
-        <v>96.39961654758211</v>
+        <v>279.223257246122</v>
       </c>
       <c r="V37" t="n">
-        <v>80.85978980493039</v>
+        <v>263.6834305034703</v>
       </c>
       <c r="W37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="X37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.58728123120492</v>
+        <v>213.4109219297448</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>876.3521304873561</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101798</v>
+        <v>746.5342750101797</v>
       </c>
       <c r="D38" t="n">
         <v>627.4132378666645</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316556</v>
+        <v>480.7696467316555</v>
       </c>
       <c r="F38" t="n">
         <v>308.9284034052832</v>
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.9747201735832</v>
+        <v>885.8656709530947</v>
       </c>
       <c r="C39" t="n">
-        <v>179.5216908924562</v>
+        <v>711.4126416719677</v>
       </c>
       <c r="D39" t="n">
-        <v>30.58728123120492</v>
+        <v>562.4782320107164</v>
       </c>
       <c r="E39" t="n">
-        <v>30.58728123120492</v>
+        <v>403.2407770052609</v>
       </c>
       <c r="F39" t="n">
-        <v>30.58728123120492</v>
+        <v>256.7062190321459</v>
       </c>
       <c r="G39" t="n">
-        <v>30.58728123120492</v>
+        <v>118.2500798032316</v>
       </c>
       <c r="H39" t="n">
-        <v>30.58728123120492</v>
+        <v>111.429513095577</v>
       </c>
       <c r="I39" t="n">
         <v>30.58728123120492</v>
       </c>
       <c r="J39" t="n">
-        <v>30.58728123120492</v>
+        <v>55.28353557101474</v>
       </c>
       <c r="K39" t="n">
-        <v>30.58728123120492</v>
+        <v>55.28353557101474</v>
       </c>
       <c r="L39" t="n">
-        <v>319.0053555161836</v>
+        <v>343.7016098559934</v>
       </c>
       <c r="M39" t="n">
-        <v>697.5229607523445</v>
+        <v>722.2192150921542</v>
       </c>
       <c r="N39" t="n">
-        <v>982.5036997766763</v>
+        <v>1100.736820328315</v>
       </c>
       <c r="O39" t="n">
-        <v>1295.311384574645</v>
+        <v>1413.544505126284</v>
       </c>
       <c r="P39" t="n">
         <v>1529.364061560246</v>
@@ -7275,28 +7275,28 @@
         <v>1529.364061560246</v>
       </c>
       <c r="R39" t="n">
-        <v>1529.364061560246</v>
+        <v>1445.249171077978</v>
       </c>
       <c r="S39" t="n">
-        <v>1529.364061560246</v>
+        <v>1276.934002003083</v>
       </c>
       <c r="T39" t="n">
-        <v>1529.364061560246</v>
+        <v>1276.934002003083</v>
       </c>
       <c r="U39" t="n">
-        <v>1427.191321124082</v>
+        <v>1276.934002003083</v>
       </c>
       <c r="V39" t="n">
-        <v>1192.039212892339</v>
+        <v>1276.934002003083</v>
       </c>
       <c r="W39" t="n">
-        <v>937.8018561641379</v>
+        <v>1261.841306738117</v>
       </c>
       <c r="X39" t="n">
-        <v>729.9503559586051</v>
+        <v>1261.841306738117</v>
       </c>
       <c r="Y39" t="n">
-        <v>522.1900571936512</v>
+        <v>1054.081007973163</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.58728123120492</v>
+        <v>213.410921929745</v>
       </c>
       <c r="C40" t="n">
-        <v>30.58728123120492</v>
+        <v>213.410921929745</v>
       </c>
       <c r="D40" t="n">
-        <v>30.58728123120492</v>
+        <v>213.410921929745</v>
       </c>
       <c r="E40" t="n">
-        <v>30.58728123120492</v>
+        <v>213.410921929745</v>
       </c>
       <c r="F40" t="n">
-        <v>30.58728123120492</v>
+        <v>200.0448514959357</v>
       </c>
       <c r="G40" t="n">
         <v>30.58728123120492</v>
@@ -7369,13 +7369,13 @@
         <v>263.6834305034704</v>
       </c>
       <c r="W40" t="n">
-        <v>212.2357460614446</v>
+        <v>213.410921929745</v>
       </c>
       <c r="X40" t="n">
-        <v>212.2357460614446</v>
+        <v>213.410921929745</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.2357460614446</v>
+        <v>213.410921929745</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.536964290748</v>
+        <v>976.5369642907485</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483222</v>
+        <v>830.6764393483228</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395577</v>
+        <v>695.5127327395583</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721392994</v>
+        <v>532.8264721393002</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476778</v>
+        <v>344.9425593476787</v>
       </c>
       <c r="G41" t="n">
         <v>149.060223547666</v>
@@ -7412,16 +7412,16 @@
         <v>95.08187709075121</v>
       </c>
       <c r="K41" t="n">
-        <v>299.8269678324025</v>
+        <v>262.1020530600287</v>
       </c>
       <c r="L41" t="n">
-        <v>559.3068925987392</v>
+        <v>521.5819778263653</v>
       </c>
       <c r="M41" t="n">
-        <v>864.6348508032166</v>
+        <v>826.9099360308428</v>
       </c>
       <c r="N41" t="n">
-        <v>1160.271337036182</v>
+        <v>1122.546422263808</v>
       </c>
       <c r="O41" t="n">
         <v>1394.244849891562</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>882.9739212573378</v>
+        <v>978.8818328321698</v>
       </c>
       <c r="C42" t="n">
-        <v>708.5208919762108</v>
+        <v>804.4288035510428</v>
       </c>
       <c r="D42" t="n">
-        <v>559.5864823149595</v>
+        <v>655.4943938897916</v>
       </c>
       <c r="E42" t="n">
-        <v>400.349027309504</v>
+        <v>496.2569388843361</v>
       </c>
       <c r="F42" t="n">
-        <v>253.814469336389</v>
+        <v>349.7223809112211</v>
       </c>
       <c r="G42" t="n">
-        <v>115.3583301074747</v>
+        <v>226.0745754059853</v>
       </c>
       <c r="H42" t="n">
         <v>115.3583301074747</v>
@@ -7488,7 +7488,7 @@
         <v>34.51609824310268</v>
       </c>
       <c r="J42" t="n">
-        <v>59.2123525829125</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="K42" t="n">
         <v>87.43669226223369</v>
@@ -7515,25 +7515,25 @@
         <v>1641.690021672866</v>
       </c>
       <c r="S42" t="n">
-        <v>1515.090093017722</v>
+        <v>1473.374852597971</v>
       </c>
       <c r="T42" t="n">
-        <v>1515.090093017722</v>
+        <v>1473.374852597971</v>
       </c>
       <c r="U42" t="n">
-        <v>1509.986538211865</v>
+        <v>1245.169305794128</v>
       </c>
       <c r="V42" t="n">
-        <v>1497.936421978108</v>
+        <v>1010.017197562385</v>
       </c>
       <c r="W42" t="n">
-        <v>1466.801057247892</v>
+        <v>978.8818328321698</v>
       </c>
       <c r="X42" t="n">
-        <v>1258.94955704236</v>
+        <v>978.8818328321698</v>
       </c>
       <c r="Y42" t="n">
-        <v>1051.189258277406</v>
+        <v>978.8818328321698</v>
       </c>
     </row>
     <row r="43">
@@ -7594,22 +7594,22 @@
         <v>333.205992413111</v>
       </c>
       <c r="S43" t="n">
-        <v>333.205992413111</v>
+        <v>209.5600407204871</v>
       </c>
       <c r="T43" t="n">
-        <v>327.0438707029741</v>
+        <v>203.3979190103502</v>
       </c>
       <c r="U43" t="n">
-        <v>260.9472830826336</v>
+        <v>137.3013313900097</v>
       </c>
       <c r="V43" t="n">
-        <v>229.3647868747327</v>
+        <v>105.7188351821087</v>
       </c>
       <c r="W43" t="n">
-        <v>163.049608835758</v>
+        <v>39.40365714313407</v>
       </c>
       <c r="X43" t="n">
-        <v>158.1620499357266</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="Y43" t="n">
         <v>34.51609824310268</v>
@@ -7649,22 +7649,22 @@
         <v>95.08187709075121</v>
       </c>
       <c r="K44" t="n">
-        <v>299.8269678324025</v>
+        <v>262.1020530600287</v>
       </c>
       <c r="L44" t="n">
-        <v>559.3068925987392</v>
+        <v>521.5819778263653</v>
       </c>
       <c r="M44" t="n">
-        <v>864.6348508032166</v>
+        <v>826.9099360308428</v>
       </c>
       <c r="N44" t="n">
-        <v>1160.271337036182</v>
+        <v>1122.546422263808</v>
       </c>
       <c r="O44" t="n">
-        <v>1394.244849891562</v>
+        <v>1356.519935119188</v>
       </c>
       <c r="P44" t="n">
-        <v>1556.26144703756</v>
+        <v>1518.536532265187</v>
       </c>
       <c r="Q44" t="n">
         <v>1600.707404385352</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>647.484756398778</v>
+        <v>547.9283406286511</v>
       </c>
       <c r="C45" t="n">
-        <v>647.484756398778</v>
+        <v>547.9283406286511</v>
       </c>
       <c r="D45" t="n">
-        <v>498.5503467375268</v>
+        <v>547.9283406286511</v>
       </c>
       <c r="E45" t="n">
-        <v>339.3128917320713</v>
+        <v>511.0652726080147</v>
       </c>
       <c r="F45" t="n">
-        <v>192.7783337589562</v>
+        <v>364.5307146348996</v>
       </c>
       <c r="G45" t="n">
-        <v>192.7783337589562</v>
+        <v>226.0745754059853</v>
       </c>
       <c r="H45" t="n">
-        <v>82.06208846044564</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="I45" t="n">
         <v>34.51609824310268</v>
@@ -7734,43 +7734,43 @@
         <v>516.4611022109533</v>
       </c>
       <c r="M45" t="n">
-        <v>764.4042770763826</v>
+        <v>905.0106127401236</v>
       </c>
       <c r="N45" t="n">
-        <v>1178.944550371565</v>
+        <v>1075.184303527813</v>
       </c>
       <c r="O45" t="n">
-        <v>1491.752235169534</v>
+        <v>1387.991988325782</v>
       </c>
       <c r="P45" t="n">
-        <v>1725.804912155134</v>
+        <v>1622.044665311382</v>
       </c>
       <c r="Q45" t="n">
         <v>1725.804912155134</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.804912155134</v>
+        <v>1641.690021672866</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.804912155134</v>
+        <v>1473.374852597971</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.804912155134</v>
+        <v>1473.374852597971</v>
       </c>
       <c r="U45" t="n">
-        <v>1720.701357349277</v>
+        <v>1245.169305794128</v>
       </c>
       <c r="V45" t="n">
-        <v>1485.549249117534</v>
+        <v>1010.017197562385</v>
       </c>
       <c r="W45" t="n">
-        <v>1231.311892389333</v>
+        <v>755.7798408341839</v>
       </c>
       <c r="X45" t="n">
-        <v>1023.4603921838</v>
+        <v>547.9283406286511</v>
       </c>
       <c r="Y45" t="n">
-        <v>815.7000934188461</v>
+        <v>547.9283406286511</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.5369618925369</v>
+        <v>158.1620499357266</v>
       </c>
       <c r="C46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="D46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="E46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="F46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="G46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="H46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="I46" t="n">
-        <v>112.5369618925369</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="J46" t="n">
         <v>34.51609824310268</v>
@@ -7831,25 +7831,25 @@
         <v>333.205992413111</v>
       </c>
       <c r="S46" t="n">
-        <v>287.5809043699212</v>
+        <v>333.205992413111</v>
       </c>
       <c r="T46" t="n">
-        <v>281.4187826597843</v>
+        <v>327.0438707029741</v>
       </c>
       <c r="U46" t="n">
-        <v>215.3221950394438</v>
+        <v>260.9472830826336</v>
       </c>
       <c r="V46" t="n">
-        <v>183.7396988315429</v>
+        <v>229.3647868747327</v>
       </c>
       <c r="W46" t="n">
-        <v>117.4245207925682</v>
+        <v>163.049608835758</v>
       </c>
       <c r="X46" t="n">
-        <v>112.5369618925369</v>
+        <v>158.1620499357266</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.5369618925369</v>
+        <v>158.1620499357266</v>
       </c>
     </row>
   </sheetData>
@@ -8702,10 +8702,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>247.5282334398915</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5267603486289</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>167.4200842479938</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>122.4321339518871</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>243.5967907253462</v>
+        <v>410.5756052403911</v>
       </c>
       <c r="N12" t="n">
         <v>397.9596201107003</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251586</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>264.9742268937187</v>
+        <v>410.5756052403911</v>
       </c>
       <c r="N15" t="n">
-        <v>60.61482556054122</v>
+        <v>397.9596201107004</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>81.45218207996045</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.9085668823632</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>222.0615130380215</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>259.1800701772195</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>167.4200842479938</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251586</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8615307884143</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>410.5756052403911</v>
       </c>
       <c r="N18" t="n">
-        <v>397.9596201107003</v>
+        <v>397.9596201107004</v>
       </c>
       <c r="O18" t="n">
-        <v>77.89496089494273</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>135.8066730427257</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.9085668823632</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>219.7148086383395</v>
+        <v>188.5267603486289</v>
       </c>
       <c r="Q20" t="n">
         <v>167.4200842479938</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>289.919938348072</v>
+        <v>264.9742268937187</v>
       </c>
       <c r="N21" t="n">
         <v>60.61482556054122</v>
@@ -9641,10 +9641,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>239.4943603156858</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>271.3466792580687</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>149.2567293009816</v>
       </c>
       <c r="M24" t="n">
-        <v>73.23081069023199</v>
+        <v>410.5756052403913</v>
       </c>
       <c r="N24" t="n">
-        <v>357.1665719092318</v>
+        <v>397.9596201107005</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>82.04592319993671</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251586</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>443.1410811284831</v>
+        <v>455.5718260802934</v>
       </c>
       <c r="N36" t="n">
-        <v>60.61482556054122</v>
+        <v>442.9558409506027</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>223.9810855976858</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>93.92920131251586</v>
@@ -10911,13 +10911,13 @@
         <v>455.5718260802934</v>
       </c>
       <c r="N39" t="n">
-        <v>348.4741579083511</v>
+        <v>442.9558409506027</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0353741433326</v>
       </c>
       <c r="Q39" t="n">
         <v>105.2689575906448</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K42" t="n">
-        <v>122.4386353320322</v>
+        <v>147.3843467863855</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6784620694535</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>232.507442517803</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,19 +23258,19 @@
         <v>239.9059052411879</v>
       </c>
       <c r="C11" t="n">
-        <v>222.4449553487148</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983902</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1024336499691</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977252</v>
+        <v>271.4142118826777</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.10850134310213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411878</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>156.8207575322373</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977252</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.27350700239632</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>184.9243220478422</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4130322951203</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4100022337608</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="15">
@@ -26314,40 +26314,40 @@
         <v>20481.90846792596</v>
       </c>
       <c r="C2" t="n">
+        <v>20481.90846792595</v>
+      </c>
+      <c r="D2" t="n">
         <v>20481.90846792596</v>
       </c>
-      <c r="D2" t="n">
-        <v>20481.90846792595</v>
-      </c>
       <c r="E2" t="n">
+        <v>17576.00544579203</v>
+      </c>
+      <c r="F2" t="n">
         <v>17576.00544579202</v>
       </c>
-      <c r="F2" t="n">
-        <v>17576.00544579203</v>
-      </c>
       <c r="G2" t="n">
+        <v>20526.04424660706</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="I2" t="n">
         <v>20526.04424660707</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20526.04424660707</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660707</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660705</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660705</v>
       </c>
       <c r="O2" t="n">
         <v>20526.04424660705</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.6634877598</v>
+        <v>316558.6634877597</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86781.64499674758</v>
+        <v>86781.64499674756</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125975.7919503425</v>
+        <v>125975.7919503424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674762</v>
+        <v>86781.64499674753</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.91860002073</v>
+        <v>76347.91860002078</v>
       </c>
       <c r="N3" t="n">
         <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532947</v>
+        <v>32085.47662532944</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210776</v>
       </c>
       <c r="F4" t="n">
-        <v>329006.4673210777</v>
+        <v>329006.4673210776</v>
       </c>
       <c r="G4" t="n">
-        <v>396179.5052090348</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="H4" t="n">
         <v>396179.5052090348</v>
       </c>
       <c r="I4" t="n">
-        <v>396179.5052090347</v>
+        <v>396179.5052090348</v>
       </c>
       <c r="J4" t="n">
         <v>394231.1226104039</v>
@@ -26454,7 +26454,7 @@
         <v>394377.3697647622</v>
       </c>
       <c r="O4" t="n">
-        <v>393892.819757347</v>
+        <v>393892.8197573469</v>
       </c>
       <c r="P4" t="n">
         <v>393892.8197573469</v>
@@ -26488,7 +26488,7 @@
         <v>44393.65186654632</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654632</v>
+        <v>44393.65186654633</v>
       </c>
       <c r="J5" t="n">
         <v>57462.97101278279</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460170.3118044669</v>
+        <v>-460174.725382335</v>
       </c>
       <c r="C6" t="n">
-        <v>-460170.3118044669</v>
+        <v>-460174.725382335</v>
       </c>
       <c r="D6" t="n">
-        <v>-460170.3118044669</v>
+        <v>-460174.725382335</v>
       </c>
       <c r="E6" t="n">
-        <v>-663263.2195880524</v>
+        <v>-663558.2234681336</v>
       </c>
       <c r="F6" t="n">
-        <v>-346704.5561002926</v>
+        <v>-346999.5599803739</v>
       </c>
       <c r="G6" t="n">
-        <v>-506828.7578257216</v>
+        <v>-506828.7578257215</v>
       </c>
       <c r="H6" t="n">
         <v>-420047.112828974</v>
@@ -26543,7 +26543,7 @@
         <v>-420047.112828974</v>
       </c>
       <c r="J6" t="n">
-        <v>-557143.8413269222</v>
+        <v>-557143.8413269221</v>
       </c>
       <c r="K6" t="n">
         <v>-431168.0493765796</v>
@@ -26552,13 +26552,13 @@
         <v>-517949.6943733272</v>
       </c>
       <c r="M6" t="n">
-        <v>-496105.3128022702</v>
+        <v>-496105.3128022703</v>
       </c>
       <c r="N6" t="n">
         <v>-419757.3942022496</v>
       </c>
       <c r="O6" t="n">
-        <v>-453009.0174817248</v>
+        <v>-453009.0174817247</v>
       </c>
       <c r="P6" t="n">
         <v>-420923.5408563953</v>
@@ -26698,10 +26698,10 @@
         <v>142.8279364222927</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I2" t="n">
         <v>251.3049926682271</v>
@@ -26713,7 +26713,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="L2" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M2" t="n">
         <v>236.7532148486028</v>
@@ -26808,16 +26808,16 @@
         <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501591</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="J4" t="n">
         <v>692.8008451099396</v>
       </c>
       <c r="K4" t="n">
-        <v>692.8008451099395</v>
+        <v>692.8008451099396</v>
       </c>
       <c r="L4" t="n">
-        <v>692.8008451099395</v>
+        <v>692.8008451099396</v>
       </c>
       <c r="M4" t="n">
         <v>382.3410153900614</v>
@@ -26917,10 +26917,10 @@
         <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.4770562459345</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209911</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459345</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056918</v>
+        <v>87.06009728056929</v>
       </c>
       <c r="N2" t="n">
         <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>25.3338185515023</v>
+        <v>25.33381855150228</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597805</v>
+        <v>355.4560505597802</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028109</v>
+        <v>26.88496483028098</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459345</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209911</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>125.5643823279503</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>142.8279364222927</v>
@@ -28184,10 +28184,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6090828455255</v>
+        <v>12.31171920545508</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V12" t="n">
         <v>142.8279364222927</v>
@@ -28272,22 +28272,22 @@
         <v>142.8279364222927</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>8.149808585997036</v>
+      </c>
+      <c r="N13" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>142.8279364222927</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>142.8279364222927</v>
       </c>
       <c r="P13" t="n">
-        <v>8.149808585996553</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q13" t="n">
         <v>142.8279364222927</v>
@@ -28412,19 +28412,19 @@
         <v>142.8279364222927</v>
       </c>
       <c r="E15" t="n">
-        <v>110.8411262127367</v>
+        <v>92.34552875118349</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.27374157744549</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V15" t="n">
         <v>142.8279364222927</v>
@@ -28515,13 +28515,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.14980858599705</v>
+      </c>
+      <c r="O16" t="n">
         <v>142.8279364222927</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8.149808585995842</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>142.8279364222927</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="C17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="D17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="E17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I17" t="n">
         <v>190.8814659761525</v>
@@ -28621,16 +28621,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="Y17" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
     </row>
     <row r="18">
@@ -28652,16 +28652,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>123.5736869533922</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,25 +28691,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>124.3273753380149</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.3049926682272</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28734,13 +28734,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.70660713519167</v>
+        <v>167.7629945620835</v>
       </c>
       <c r="H19" t="n">
         <v>160.2001804087575</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J19" t="n">
         <v>77.24065501293981</v>
@@ -28770,19 +28770,19 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S19" t="n">
-        <v>220.0434448128684</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.9714725710416</v>
       </c>
       <c r="U19" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W19" t="n">
-        <v>251.3049926682272</v>
+        <v>246.697699730668</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I20" t="n">
         <v>190.8814659761525</v>
@@ -28858,16 +28858,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
     </row>
     <row r="21">
@@ -28883,22 +28883,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744549</v>
+        <v>51.51750242507872</v>
       </c>
       <c r="S21" t="n">
         <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77568631074055</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28968,10 +28968,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7629945620835</v>
+        <v>88.53330483458718</v>
       </c>
       <c r="H22" t="n">
         <v>160.2001804087575</v>
@@ -29013,16 +29013,16 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682272</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X22" t="n">
-        <v>1.058917638609586</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29117,22 +29117,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H24" t="n">
-        <v>96.39309417094859</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29168,22 +29168,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>136.032559040755</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29199,7 +29199,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29211,7 +29211,7 @@
         <v>167.7629945620835</v>
       </c>
       <c r="H25" t="n">
-        <v>160.2001804087575</v>
+        <v>84.16491567654231</v>
       </c>
       <c r="I25" t="n">
         <v>148.5943503235359</v>
@@ -29244,10 +29244,10 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>220.0434448128684</v>
       </c>
       <c r="T25" t="n">
-        <v>222.3641796334825</v>
+        <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
         <v>251.3049926682271</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6090828455255</v>
+        <v>101.2411206685744</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29408,7 +29408,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="U27" t="n">
-        <v>61.29134584535404</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29451,31 +29451,31 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I28" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="K28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>11.64097066483075</v>
+        <v>95.36143003851151</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>149.6931175680335</v>
+        <v>67.07142543885084</v>
       </c>
       <c r="R28" t="n">
         <v>149.6931175680335</v>
@@ -29600,7 +29600,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0715778366251</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.27374157744549</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="T30" t="n">
-        <v>149.6931175680335</v>
+        <v>149.1889925974492</v>
       </c>
       <c r="U30" t="n">
-        <v>61.29134584535404</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29688,10 +29688,10 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I31" t="n">
-        <v>148.5943503235359</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J31" t="n">
-        <v>95.36143003851134</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K31" t="n">
         <v>149.6931175680335</v>
@@ -29700,19 +29700,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>11.64097066483075</v>
+      </c>
+      <c r="P31" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>67.07142543885084</v>
       </c>
       <c r="R31" t="n">
         <v>149.6931175680335</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="D32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="H32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="I32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M32" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="N32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="O32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680342</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="R32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="V32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
     </row>
     <row r="33">
@@ -29876,16 +29876,16 @@
         <v>83.27374157744549</v>
       </c>
       <c r="S33" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T33" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U33" t="n">
-        <v>61.29134584535382</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>61.29134584535407</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="I34" t="n">
-        <v>148.5943503235359</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J34" t="n">
-        <v>103.9702990548983</v>
+        <v>77.24065501293981</v>
       </c>
       <c r="K34" t="n">
-        <v>149.6931175680336</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>149.6931175680336</v>
+        <v>84.09343321992496</v>
       </c>
       <c r="O34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.07142543885084</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="R34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="V34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
     </row>
     <row r="35">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>76.7348629820994</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -30119,7 +30119,7 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>124.7724783040027</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30153,10 +30153,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>132.1886382934602</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7629945620835</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>160.2001804087575</v>
@@ -30198,7 +30198,7 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U37" t="n">
-        <v>55.75781055704837</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="V37" t="n">
         <v>236.7532148486028</v>
@@ -30308,19 +30308,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6090828455255</v>
+        <v>102.8567218049473</v>
       </c>
       <c r="I39" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,25 +30347,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744549</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U39" t="n">
-        <v>124.7724783040027</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>236.7532148486029</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30390,10 +30390,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>132.18863829346</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7629945620835</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>160.2001804087575</v>
@@ -30441,7 +30441,7 @@
         <v>236.7532148486029</v>
       </c>
       <c r="W40" t="n">
-        <v>235.5897907389855</v>
+        <v>236.7532148486029</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>38.10597451754924</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>38.1059745175491</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>14.66025038644169</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,25 +30587,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>41.29808801555345</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>220.8709720780061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30666,7 +30666,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S43" t="n">
-        <v>220.0434448128684</v>
+        <v>97.63395263717068</v>
       </c>
       <c r="T43" t="n">
         <v>220.8709720780061</v>
@@ -30684,7 +30684,7 @@
         <v>220.8709720780061</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.17516117639708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30721,25 +30721,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>38.10597451754924</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>220.8709720780061</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>121.1506431149709</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.96327923055881</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.27374157744549</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30855,7 +30855,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>44.83732892293013</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -30876,7 +30876,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.24065501293981</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S46" t="n">
-        <v>174.8746076501104</v>
+        <v>220.0434448128684</v>
       </c>
       <c r="T46" t="n">
         <v>220.8709720780061</v>
@@ -35422,10 +35422,10 @@
         <v>298.6227133666318</v>
       </c>
       <c r="O11" t="n">
-        <v>236.3368816721011</v>
+        <v>103.0649338492473</v>
       </c>
       <c r="P11" t="n">
-        <v>30.38118060744752</v>
+        <v>163.6531284303013</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.94571145435336</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>170.5360357000627</v>
+        <v>28.5029326393712</v>
       </c>
       <c r="L12" t="n">
         <v>291.3313881666451</v>
       </c>
       <c r="M12" t="n">
-        <v>170.3659800351143</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
         <v>337.3447945501591</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.5872814093529</v>
+        <v>65.58728140935287</v>
       </c>
       <c r="K13" t="n">
-        <v>147.0461327571026</v>
+        <v>4.218196334809857</v>
       </c>
       <c r="L13" t="n">
         <v>61.48514671414781</v>
       </c>
       <c r="M13" t="n">
-        <v>218.1494665104889</v>
+        <v>83.47133867419321</v>
       </c>
       <c r="N13" t="n">
-        <v>79.02006399182177</v>
+        <v>221.8480004141144</v>
       </c>
       <c r="O13" t="n">
         <v>199.6376790094506</v>
       </c>
       <c r="P13" t="n">
-        <v>33.00209267795231</v>
+        <v>167.6802205142484</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.75651098344187</v>
+        <v>75.75651098344184</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>24.94571145435336</v>
       </c>
       <c r="K15" t="n">
-        <v>170.5360357000627</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>291.3313881666451</v>
       </c>
       <c r="M15" t="n">
-        <v>191.7434162034866</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O15" t="n">
-        <v>315.9673583817868</v>
+        <v>3.557221185017721</v>
       </c>
       <c r="P15" t="n">
         <v>236.4168454400005</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935293</v>
+        <v>65.58728140935287</v>
       </c>
       <c r="K16" t="n">
-        <v>147.0461327571026</v>
+        <v>147.0461327571025</v>
       </c>
       <c r="L16" t="n">
         <v>61.48514671414781</v>
       </c>
       <c r="M16" t="n">
-        <v>218.1494665104889</v>
+        <v>75.32153008819617</v>
       </c>
       <c r="N16" t="n">
-        <v>87.16987257781761</v>
+        <v>87.16987257781882</v>
       </c>
       <c r="O16" t="n">
-        <v>56.80974258715786</v>
+        <v>199.6376790094506</v>
       </c>
       <c r="P16" t="n">
-        <v>167.6802205142485</v>
+        <v>167.6802205142484</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.7565109834419</v>
+        <v>75.75651098344184</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.18804828971058</v>
       </c>
       <c r="K17" t="n">
-        <v>66.62334892067246</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L17" t="n">
         <v>262.1009341074108</v>
@@ -35893,7 +35893,7 @@
         <v>308.4120789944217</v>
       </c>
       <c r="N17" t="n">
-        <v>298.6227133666318</v>
+        <v>120.4558591318671</v>
       </c>
       <c r="O17" t="n">
         <v>236.3368816721011</v>
@@ -35902,7 +35902,7 @@
         <v>163.6531284303013</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>44.8949064119109</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>24.94571145435336</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>170.5360357000627</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>124.3525736516003</v>
+        <v>291.3313881666451</v>
       </c>
       <c r="M18" t="n">
         <v>337.3447945501591</v>
@@ -35975,13 +35975,13 @@
         <v>337.3447945501591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>315.9673583817868</v>
       </c>
       <c r="P18" t="n">
-        <v>236.4168454400005</v>
+        <v>53.76074984278901</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>31.18804828971058</v>
       </c>
       <c r="K20" t="n">
         <v>168.7072484538157</v>
@@ -36136,7 +36136,7 @@
         <v>236.3368816721011</v>
       </c>
       <c r="P20" t="n">
-        <v>61.56922889715818</v>
+        <v>30.38118060744752</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.94571145435336</v>
       </c>
       <c r="K21" t="n">
         <v>170.5360357000627</v>
@@ -36206,7 +36206,7 @@
         <v>291.3313881666451</v>
       </c>
       <c r="M21" t="n">
-        <v>216.68912765784</v>
+        <v>191.7434162034866</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>168.7072484538157</v>
       </c>
       <c r="L23" t="n">
-        <v>83.93407987264608</v>
+        <v>262.1009341074108</v>
       </c>
       <c r="M23" t="n">
-        <v>308.4120789944217</v>
+        <v>130.2452247596578</v>
       </c>
       <c r="N23" t="n">
         <v>298.6227133666318</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.94571145435336</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>170.5360357000627</v>
       </c>
       <c r="L24" t="n">
-        <v>291.3313881666451</v>
+        <v>69.74777216416759</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="N24" t="n">
-        <v>296.5517463486906</v>
+        <v>337.3447945501593</v>
       </c>
       <c r="O24" t="n">
         <v>315.9673583817868</v>
       </c>
       <c r="P24" t="n">
-        <v>236.4168454400005</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>411.7940516754443</v>
       </c>
       <c r="M26" t="n">
-        <v>458.1051965624552</v>
+        <v>458.1051965624551</v>
       </c>
       <c r="N26" t="n">
         <v>448.3158309346653</v>
@@ -36616,7 +36616,7 @@
         <v>194.5880239799444</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141069</v>
+        <v>31.75054683141067</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.077644549821173</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464358</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102283</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.098767244497586</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.45246255509372</v>
+        <v>72.45246255509369</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9113139028434</v>
+        <v>4.218196334809857</v>
       </c>
       <c r="L28" t="n">
         <v>211.1782642821813</v>
       </c>
       <c r="M28" t="n">
-        <v>75.32153008819617</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N28" t="n">
         <v>79.02006399182177</v>
       </c>
       <c r="O28" t="n">
-        <v>68.45071325198862</v>
+        <v>152.1711726256694</v>
       </c>
       <c r="P28" t="n">
         <v>24.85228409195575</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.62169212918269</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>448.3158309346653</v>
       </c>
       <c r="O29" t="n">
-        <v>386.0299992401346</v>
+        <v>386.0299992401347</v>
       </c>
       <c r="P29" t="n">
         <v>313.3462459983348</v>
@@ -36853,7 +36853,7 @@
         <v>194.5880239799444</v>
       </c>
       <c r="R29" t="n">
-        <v>31.75054683141067</v>
+        <v>31.7505468314107</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.077644549821144</v>
+        <v>1.077644549821173</v>
       </c>
       <c r="E31" t="n">
-        <v>3.259154921464329</v>
+        <v>3.259154921464358</v>
       </c>
       <c r="F31" t="n">
-        <v>4.272069545102255</v>
+        <v>4.272069545102283</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.098767244497586</v>
       </c>
       <c r="J31" t="n">
-        <v>18.12077502557154</v>
+        <v>72.45246255509372</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9113139028433</v>
+        <v>153.9113139028434</v>
       </c>
       <c r="L31" t="n">
         <v>61.48514671414781</v>
       </c>
       <c r="M31" t="n">
-        <v>225.0146476562297</v>
+        <v>75.32153008819617</v>
       </c>
       <c r="N31" t="n">
-        <v>228.7131815598553</v>
+        <v>79.02006399182177</v>
       </c>
       <c r="O31" t="n">
-        <v>56.80974258715786</v>
+        <v>68.45071325198862</v>
       </c>
       <c r="P31" t="n">
-        <v>24.85228409195575</v>
+        <v>174.5454016599893</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.62169212918269</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>318.4003660218492</v>
       </c>
       <c r="L32" t="n">
-        <v>411.7940516754444</v>
+        <v>411.7940516754443</v>
       </c>
       <c r="M32" t="n">
         <v>458.1051965624552</v>
       </c>
       <c r="N32" t="n">
-        <v>448.3158309346654</v>
+        <v>448.3158309346653</v>
       </c>
       <c r="O32" t="n">
-        <v>386.0299992401347</v>
+        <v>386.0299992401346</v>
       </c>
       <c r="P32" t="n">
-        <v>313.3462459983348</v>
+        <v>313.3462459983355</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.5880239799445</v>
+        <v>194.5880239799444</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141072</v>
+        <v>31.75054683141067</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.077644549821144</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.272069545102255</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,13 +37221,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.098767244497558</v>
       </c>
       <c r="J34" t="n">
-        <v>26.72964404195849</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9113139028434</v>
+        <v>4.218196334809857</v>
       </c>
       <c r="L34" t="n">
         <v>61.48514671414781</v>
@@ -37236,16 +37236,16 @@
         <v>75.32153008819617</v>
       </c>
       <c r="N34" t="n">
-        <v>228.7131815598553</v>
+        <v>163.1134972117467</v>
       </c>
       <c r="O34" t="n">
         <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
-        <v>24.85228409195575</v>
+        <v>174.5454016599892</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.62169212918266</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.94571145435336</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>170.5360357000627</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>291.3313881666451</v>
       </c>
       <c r="M36" t="n">
-        <v>369.9102704382511</v>
+        <v>382.3410153900614</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>382.3410153900614</v>
       </c>
       <c r="O36" t="n">
         <v>315.9673583817868</v>
       </c>
       <c r="P36" t="n">
-        <v>236.4168454400005</v>
+        <v>141.9351623977491</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.94571145435336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>382.3410153900614</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8593323478099</v>
+        <v>382.3410153900614</v>
       </c>
       <c r="O39" t="n">
         <v>315.9673583817868</v>
       </c>
       <c r="P39" t="n">
-        <v>236.4168454400005</v>
+        <v>116.9894509433959</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>31.18804828971058</v>
       </c>
       <c r="K41" t="n">
-        <v>206.8132229713649</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L41" t="n">
         <v>262.1009341074108</v>
@@ -37792,7 +37792,7 @@
         <v>298.6227133666318</v>
       </c>
       <c r="O41" t="n">
-        <v>236.3368816721011</v>
+        <v>274.4428561896502</v>
       </c>
       <c r="P41" t="n">
         <v>163.6531284303013</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.94571145435336</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>28.50943401951636</v>
+        <v>53.45514547386971</v>
       </c>
       <c r="L42" t="n">
         <v>291.3313881666451</v>
@@ -38017,7 +38017,7 @@
         <v>31.18804828971058</v>
       </c>
       <c r="K44" t="n">
-        <v>206.8132229713649</v>
+        <v>168.7072484538157</v>
       </c>
       <c r="L44" t="n">
         <v>262.1009341074108</v>
@@ -38035,7 +38035,7 @@
         <v>163.6531284303013</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.8949064119109</v>
+        <v>83.00088092946014</v>
       </c>
       <c r="R44" t="n">
         <v>102.9284013413832</v>
@@ -38102,10 +38102,10 @@
         <v>291.3313881666451</v>
       </c>
       <c r="M45" t="n">
-        <v>250.4476513792216</v>
+        <v>392.4742530597679</v>
       </c>
       <c r="N45" t="n">
-        <v>418.7275487830123</v>
+        <v>171.8926169572617</v>
       </c>
       <c r="O45" t="n">
         <v>315.9673583817868</v>
@@ -38114,7 +38114,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
